--- a/datasets/EscoreMerco.xlsx
+++ b/datasets/EscoreMerco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsaraivaleite/TCC/Codigo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsaraivaleite/TCC/Codigo/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D86242A-00F2-4D4B-9E65-BA45C4BCA27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C9967C-9EA5-7549-8E4C-301BA99185B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="138">
   <si>
     <t>Lojas Americanas</t>
   </si>
@@ -98,9 +97,6 @@
     <t>Grupo Pão de Açúcar</t>
   </si>
   <si>
-    <t>Hering</t>
-  </si>
-  <si>
     <t>Itaú Unibanco</t>
   </si>
   <si>
@@ -438,6 +434,18 @@
   </si>
   <si>
     <t>Nome</t>
+  </si>
+  <si>
+    <t>Avon</t>
+  </si>
+  <si>
+    <t>Nubank</t>
+  </si>
+  <si>
+    <t>Grupo Boticário</t>
+  </si>
+  <si>
+    <t>Grupo Soma</t>
   </si>
 </sst>
 </file>
@@ -505,9 +513,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -545,9 +553,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,26 +588,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,26 +623,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -828,7 +802,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -841,21 +815,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -866,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>8264</v>
@@ -874,10 +848,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>8141</v>
@@ -885,7 +859,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>8137</v>
@@ -893,10 +867,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>7938</v>
@@ -904,23 +878,29 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>7548</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>7404</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>7037</v>
@@ -931,7 +911,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>6977</v>
@@ -939,15 +919,15 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>6809</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>49</v>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C12">
         <v>6789</v>
@@ -955,7 +935,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>6723</v>
@@ -963,7 +943,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>6696</v>
@@ -971,15 +951,18 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>6637</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>6621</v>
@@ -987,7 +970,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>6607</v>
@@ -995,7 +978,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>6549</v>
@@ -1003,7 +986,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>6509</v>
@@ -1014,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>6484</v>
@@ -1022,7 +1005,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>6428</v>
@@ -1030,7 +1013,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <v>6423</v>
@@ -1038,7 +1021,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23">
         <v>6397</v>
@@ -1046,7 +1029,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <v>6340</v>
@@ -1054,7 +1037,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25">
         <v>6234</v>
@@ -1062,7 +1045,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26">
         <v>6076</v>
@@ -1070,7 +1053,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <v>6074</v>
@@ -1078,7 +1061,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <v>6063</v>
@@ -1086,10 +1069,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>5953</v>
@@ -1100,7 +1083,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30">
         <v>5915</v>
@@ -1108,7 +1091,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>5903</v>
@@ -1116,7 +1099,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>5738</v>
@@ -1124,10 +1107,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33">
         <v>5706</v>
@@ -1135,10 +1118,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34">
         <v>5690</v>
@@ -1149,7 +1132,7 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>5648</v>
@@ -1157,7 +1140,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36">
         <v>5637</v>
@@ -1165,7 +1148,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <v>5603</v>
@@ -1173,7 +1156,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <v>5556</v>
@@ -1181,7 +1164,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <v>5554</v>
@@ -1189,7 +1172,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40">
         <v>5476</v>
@@ -1197,7 +1180,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41">
         <v>5454</v>
@@ -1205,7 +1188,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42">
         <v>5393</v>
@@ -1216,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43">
         <v>5360</v>
@@ -1224,10 +1207,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44">
         <v>5340</v>
@@ -1238,7 +1221,7 @@
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45">
         <v>5307</v>
@@ -1246,7 +1229,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46">
         <v>5206</v>
@@ -1254,7 +1237,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47">
         <v>5194</v>
@@ -1262,7 +1245,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48">
         <v>5191</v>
@@ -1270,7 +1253,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49">
         <v>5179</v>
@@ -1278,7 +1261,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>5152</v>
@@ -1297,7 +1280,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52">
         <v>5137</v>
@@ -1305,7 +1288,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53">
         <v>5122</v>
@@ -1313,7 +1296,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54">
         <v>5084</v>
@@ -1321,10 +1304,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55">
         <v>5082</v>
@@ -1335,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56">
         <v>5026</v>
@@ -1343,10 +1326,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57">
         <v>5021</v>
@@ -1354,7 +1337,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58">
         <v>5000</v>
@@ -1365,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59">
         <v>4987</v>
@@ -1373,7 +1356,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60">
         <v>4921</v>
@@ -1384,7 +1367,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C61">
         <v>4849</v>
@@ -1395,7 +1378,7 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62">
         <v>4843</v>
@@ -1403,10 +1386,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>4788</v>
@@ -1414,7 +1397,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64">
         <v>4720</v>
@@ -1422,7 +1405,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C65">
         <v>4697</v>
@@ -1430,7 +1413,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C66">
         <v>4664</v>
@@ -1449,10 +1432,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68">
         <v>4629</v>
@@ -1460,7 +1443,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69">
         <v>4626</v>
@@ -1471,7 +1454,7 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70">
         <v>4617</v>
@@ -1479,7 +1462,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71">
         <v>4599</v>
@@ -1487,10 +1470,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C72">
         <v>4526</v>
@@ -1498,10 +1481,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C73">
         <v>4486</v>
@@ -1509,7 +1492,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74">
         <v>4462</v>
@@ -1531,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C76">
         <v>4424</v>
@@ -1539,7 +1522,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C77">
         <v>4344</v>
@@ -1547,7 +1530,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C78">
         <v>4283</v>
@@ -1555,7 +1538,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C79">
         <v>4203</v>
@@ -1563,7 +1546,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C80">
         <v>4158</v>
@@ -1571,7 +1554,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C81">
         <v>4146</v>
@@ -1579,7 +1562,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82">
         <v>4142</v>
@@ -1587,7 +1570,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C83">
         <v>4072</v>
@@ -1598,7 +1581,7 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C84">
         <v>4066</v>
@@ -1606,7 +1589,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85">
         <v>4054</v>
@@ -1617,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86">
         <v>4032</v>
@@ -1625,7 +1608,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87">
         <v>3880</v>
@@ -1633,7 +1616,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C88">
         <v>3832</v>
@@ -1641,10 +1624,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C89">
         <v>3809</v>
@@ -1652,10 +1635,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C90">
         <v>3682</v>
@@ -1666,7 +1649,7 @@
         <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91">
         <v>3661</v>
@@ -1674,10 +1657,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92">
         <v>3619</v>
@@ -1685,7 +1668,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C93">
         <v>3603</v>
@@ -1693,10 +1676,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C94">
         <v>3573</v>
@@ -1704,7 +1687,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C95">
         <v>3558</v>
@@ -1712,10 +1695,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C96">
         <v>3552</v>
@@ -1723,7 +1706,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97">
         <v>3443</v>
@@ -1734,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C98">
         <v>3364</v>
@@ -1753,7 +1736,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C100">
         <v>3235</v>
@@ -1761,14 +1744,13 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C101">
         <v>3000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C101" xr:uid="{0F74FD64-54D1-114E-9EF8-DE61B13DD991}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>